--- a/BCT-2018730.xlsx
+++ b/BCT-2018730.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Nhóm công việc</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>Tuần 2</t>
+  </si>
+  <si>
+    <t>công việc a</t>
+  </si>
+  <si>
+    <t>công việc b</t>
   </si>
 </sst>
 </file>
@@ -689,6 +698,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,9 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,72 +1038,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -1136,7 +1145,7 @@
       <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -1706,6 +1715,19 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BCT-2018730.xlsx
+++ b/BCT-2018730.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>Nhóm công việc</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>fgdfgdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>gfgdfgdf</t>
+  </si>
+  <si>
+    <t>them việc</t>
   </si>
 </sst>
 </file>
@@ -689,6 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,72 +1041,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -1136,7 +1148,7 @@
       <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="26" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -1706,6 +1718,26 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/BCT-2018730.xlsx
+++ b/BCT-2018730.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>Nhóm công việc</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>them việc</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>fds</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,6 +1746,46 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
